--- a/data/inter_iit_data/distance_matrix_pickups_to_delivery_bangalore_pickups.xlsx
+++ b/data/inter_iit_data/distance_matrix_pickups_to_delivery_bangalore_pickups.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:ID23"/>
+  <dimension ref="A1:IE24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1148,6 +1148,9 @@
       <c r="ID1" s="1" t="n">
         <v>237</v>
       </c>
+      <c r="IE1" s="1" t="n">
+        <v>238</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -1864,6 +1867,9 @@
       <c r="ID2" t="n">
         <v>1129</v>
       </c>
+      <c r="IE2" t="n">
+        <v>10312</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -2580,6 +2586,9 @@
       <c r="ID3" t="n">
         <v>15296</v>
       </c>
+      <c r="IE3" t="n">
+        <v>10344</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -3296,6 +3305,9 @@
       <c r="ID4" t="n">
         <v>14112</v>
       </c>
+      <c r="IE4" t="n">
+        <v>11256</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -4012,6 +4024,9 @@
       <c r="ID5" t="n">
         <v>621</v>
       </c>
+      <c r="IE5" t="n">
+        <v>11074</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -4728,6 +4743,9 @@
       <c r="ID6" t="n">
         <v>8992</v>
       </c>
+      <c r="IE6" t="n">
+        <v>8602</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -5444,6 +5462,9 @@
       <c r="ID7" t="n">
         <v>13141</v>
       </c>
+      <c r="IE7" t="n">
+        <v>1745</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -6160,6 +6181,9 @@
       <c r="ID8" t="n">
         <v>7287</v>
       </c>
+      <c r="IE8" t="n">
+        <v>7552</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -6876,6 +6900,9 @@
       <c r="ID9" t="n">
         <v>9543</v>
       </c>
+      <c r="IE9" t="n">
+        <v>9039</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -7592,6 +7619,9 @@
       <c r="ID10" t="n">
         <v>8581</v>
       </c>
+      <c r="IE10" t="n">
+        <v>8514</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -8308,6 +8338,9 @@
       <c r="ID11" t="n">
         <v>14366</v>
       </c>
+      <c r="IE11" t="n">
+        <v>9414</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -9024,6 +9057,9 @@
       <c r="ID12" t="n">
         <v>13103</v>
       </c>
+      <c r="IE12" t="n">
+        <v>2108</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -9740,6 +9776,9 @@
       <c r="ID13" t="n">
         <v>12380</v>
       </c>
+      <c r="IE13" t="n">
+        <v>1385</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -10456,6 +10495,9 @@
       <c r="ID14" t="n">
         <v>13518</v>
       </c>
+      <c r="IE14" t="n">
+        <v>2523</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -11172,6 +11214,9 @@
       <c r="ID15" t="n">
         <v>12146</v>
       </c>
+      <c r="IE15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -11888,6 +11933,9 @@
       <c r="ID16" t="n">
         <v>17937</v>
       </c>
+      <c r="IE16" t="n">
+        <v>7188</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -12604,6 +12652,9 @@
       <c r="ID17" t="n">
         <v>12368</v>
       </c>
+      <c r="IE17" t="n">
+        <v>1065</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -13320,6 +13371,9 @@
       <c r="ID18" t="n">
         <v>17299</v>
       </c>
+      <c r="IE18" t="n">
+        <v>8217</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -14036,6 +14090,9 @@
       <c r="ID19" t="n">
         <v>13226</v>
       </c>
+      <c r="IE19" t="n">
+        <v>11747</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -14752,6 +14809,9 @@
       <c r="ID20" t="n">
         <v>9233</v>
       </c>
+      <c r="IE20" t="n">
+        <v>8814</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -15468,6 +15528,9 @@
       <c r="ID21" t="n">
         <v>8649</v>
       </c>
+      <c r="IE21" t="n">
+        <v>8364</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -16184,6 +16247,9 @@
       <c r="ID22" t="n">
         <v>1166</v>
       </c>
+      <c r="IE22" t="n">
+        <v>11433</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -16898,6 +16964,728 @@
         <v>1603</v>
       </c>
       <c r="ID23" t="n">
+        <v>0</v>
+      </c>
+      <c r="IE23" t="n">
+        <v>11284</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>1218</v>
+      </c>
+      <c r="B24" t="n">
+        <v>13485</v>
+      </c>
+      <c r="C24" t="n">
+        <v>12775</v>
+      </c>
+      <c r="D24" t="n">
+        <v>12340</v>
+      </c>
+      <c r="E24" t="n">
+        <v>12775</v>
+      </c>
+      <c r="F24" t="n">
+        <v>11433</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12774</v>
+      </c>
+      <c r="H24" t="n">
+        <v>12367</v>
+      </c>
+      <c r="I24" t="n">
+        <v>12986</v>
+      </c>
+      <c r="J24" t="n">
+        <v>14680</v>
+      </c>
+      <c r="K24" t="n">
+        <v>11160</v>
+      </c>
+      <c r="L24" t="n">
+        <v>13063</v>
+      </c>
+      <c r="M24" t="n">
+        <v>13632</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11183</v>
+      </c>
+      <c r="O24" t="n">
+        <v>12096</v>
+      </c>
+      <c r="P24" t="n">
+        <v>11159</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>11137</v>
+      </c>
+      <c r="R24" t="n">
+        <v>11103</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10827</v>
+      </c>
+      <c r="T24" t="n">
+        <v>13771</v>
+      </c>
+      <c r="U24" t="n">
+        <v>13632</v>
+      </c>
+      <c r="V24" t="n">
+        <v>12302</v>
+      </c>
+      <c r="W24" t="n">
+        <v>14504</v>
+      </c>
+      <c r="X24" t="n">
+        <v>11433</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11285</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>12931</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>14963</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>13066</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>12298</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10762</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>14674</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>13841</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15224</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>14991</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>12049</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12567</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>15228</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>11625</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>11625</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>13231</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11625</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>12269</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>13252</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>15044</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>11814</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>12987</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>11227</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>13231</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>12962</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>12050</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>7114</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>11506</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>7156</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>8825</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>8588</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>8687</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>9396</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>10346</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>8213</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>9236</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>9185</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>9221</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>9208</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>9156</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>8528</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>8987</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>8517</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>8965</v>
+      </c>
+      <c r="BQ24" t="n">
+        <v>9344</v>
+      </c>
+      <c r="BR24" t="n">
+        <v>8239</v>
+      </c>
+      <c r="BS24" t="n">
+        <v>9287</v>
+      </c>
+      <c r="BT24" t="n">
+        <v>9008</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>6541</v>
+      </c>
+      <c r="BV24" t="n">
+        <v>9603</v>
+      </c>
+      <c r="BW24" t="n">
+        <v>9160</v>
+      </c>
+      <c r="BX24" t="n">
+        <v>8727</v>
+      </c>
+      <c r="BY24" t="n">
+        <v>8443</v>
+      </c>
+      <c r="BZ24" t="n">
+        <v>9156</v>
+      </c>
+      <c r="CA24" t="n">
+        <v>9060</v>
+      </c>
+      <c r="CB24" t="n">
+        <v>9771</v>
+      </c>
+      <c r="CC24" t="n">
+        <v>8049</v>
+      </c>
+      <c r="CD24" t="n">
+        <v>9156</v>
+      </c>
+      <c r="CE24" t="n">
+        <v>9156</v>
+      </c>
+      <c r="CF24" t="n">
+        <v>8731</v>
+      </c>
+      <c r="CG24" t="n">
+        <v>9057</v>
+      </c>
+      <c r="CH24" t="n">
+        <v>8107</v>
+      </c>
+      <c r="CI24" t="n">
+        <v>9153</v>
+      </c>
+      <c r="CJ24" t="n">
+        <v>9140</v>
+      </c>
+      <c r="CK24" t="n">
+        <v>8730</v>
+      </c>
+      <c r="CL24" t="n">
+        <v>8678</v>
+      </c>
+      <c r="CM24" t="n">
+        <v>9335</v>
+      </c>
+      <c r="CN24" t="n">
+        <v>9110</v>
+      </c>
+      <c r="CO24" t="n">
+        <v>8804</v>
+      </c>
+      <c r="CP24" t="n">
+        <v>9208</v>
+      </c>
+      <c r="CQ24" t="n">
+        <v>9696</v>
+      </c>
+      <c r="CR24" t="n">
+        <v>9239</v>
+      </c>
+      <c r="CS24" t="n">
+        <v>9146</v>
+      </c>
+      <c r="CT24" t="n">
+        <v>8437</v>
+      </c>
+      <c r="CU24" t="n">
+        <v>9629</v>
+      </c>
+      <c r="CV24" t="n">
+        <v>9060</v>
+      </c>
+      <c r="CW24" t="n">
+        <v>8441</v>
+      </c>
+      <c r="CX24" t="n">
+        <v>5564</v>
+      </c>
+      <c r="CY24" t="n">
+        <v>5523</v>
+      </c>
+      <c r="CZ24" t="n">
+        <v>5621</v>
+      </c>
+      <c r="DA24" t="n">
+        <v>5709</v>
+      </c>
+      <c r="DB24" t="n">
+        <v>5710</v>
+      </c>
+      <c r="DC24" t="n">
+        <v>5444</v>
+      </c>
+      <c r="DD24" t="n">
+        <v>4402</v>
+      </c>
+      <c r="DE24" t="n">
+        <v>5769</v>
+      </c>
+      <c r="DF24" t="n">
+        <v>5255</v>
+      </c>
+      <c r="DG24" t="n">
+        <v>4512</v>
+      </c>
+      <c r="DH24" t="n">
+        <v>5822</v>
+      </c>
+      <c r="DI24" t="n">
+        <v>4699</v>
+      </c>
+      <c r="DJ24" t="n">
+        <v>4362</v>
+      </c>
+      <c r="DK24" t="n">
+        <v>4584</v>
+      </c>
+      <c r="DL24" t="n">
+        <v>834</v>
+      </c>
+      <c r="DM24" t="n">
+        <v>1266</v>
+      </c>
+      <c r="DN24" t="n">
+        <v>4574</v>
+      </c>
+      <c r="DO24" t="n">
+        <v>1003</v>
+      </c>
+      <c r="DP24" t="n">
+        <v>838</v>
+      </c>
+      <c r="DQ24" t="n">
+        <v>5769</v>
+      </c>
+      <c r="DR24" t="n">
+        <v>1858</v>
+      </c>
+      <c r="DS24" t="n">
+        <v>1097</v>
+      </c>
+      <c r="DT24" t="n">
+        <v>1638</v>
+      </c>
+      <c r="DU24" t="n">
+        <v>2368</v>
+      </c>
+      <c r="DV24" t="n">
+        <v>2201</v>
+      </c>
+      <c r="DW24" t="n">
+        <v>18128</v>
+      </c>
+      <c r="DX24" t="n">
+        <v>1050</v>
+      </c>
+      <c r="DY24" t="n">
+        <v>6428</v>
+      </c>
+      <c r="DZ24" t="n">
+        <v>5822</v>
+      </c>
+      <c r="EA24" t="n">
+        <v>1806</v>
+      </c>
+      <c r="EB24" t="n">
+        <v>18128</v>
+      </c>
+      <c r="EC24" t="n">
+        <v>5729</v>
+      </c>
+      <c r="ED24" t="n">
+        <v>1115</v>
+      </c>
+      <c r="EE24" t="n">
+        <v>19246</v>
+      </c>
+      <c r="EF24" t="n">
+        <v>1224</v>
+      </c>
+      <c r="EG24" t="n">
+        <v>4719</v>
+      </c>
+      <c r="EH24" t="n">
+        <v>1753</v>
+      </c>
+      <c r="EI24" t="n">
+        <v>1092</v>
+      </c>
+      <c r="EJ24" t="n">
+        <v>1123</v>
+      </c>
+      <c r="EK24" t="n">
+        <v>796</v>
+      </c>
+      <c r="EL24" t="n">
+        <v>1185</v>
+      </c>
+      <c r="EM24" t="n">
+        <v>288</v>
+      </c>
+      <c r="EN24" t="n">
+        <v>780</v>
+      </c>
+      <c r="EO24" t="n">
+        <v>1409</v>
+      </c>
+      <c r="EP24" t="n">
+        <v>5468</v>
+      </c>
+      <c r="EQ24" t="n">
+        <v>1668</v>
+      </c>
+      <c r="ER24" t="n">
+        <v>1123</v>
+      </c>
+      <c r="ES24" t="n">
+        <v>4434</v>
+      </c>
+      <c r="ET24" t="n">
+        <v>9609</v>
+      </c>
+      <c r="EU24" t="n">
+        <v>11788</v>
+      </c>
+      <c r="EV24" t="n">
+        <v>11778</v>
+      </c>
+      <c r="EW24" t="n">
+        <v>11377</v>
+      </c>
+      <c r="EX24" t="n">
+        <v>12557</v>
+      </c>
+      <c r="EY24" t="n">
+        <v>12258</v>
+      </c>
+      <c r="EZ24" t="n">
+        <v>9795</v>
+      </c>
+      <c r="FA24" t="n">
+        <v>9609</v>
+      </c>
+      <c r="FB24" t="n">
+        <v>11640</v>
+      </c>
+      <c r="FC24" t="n">
+        <v>11870</v>
+      </c>
+      <c r="FD24" t="n">
+        <v>11640</v>
+      </c>
+      <c r="FE24" t="n">
+        <v>14333</v>
+      </c>
+      <c r="FF24" t="n">
+        <v>9609</v>
+      </c>
+      <c r="FG24" t="n">
+        <v>9676</v>
+      </c>
+      <c r="FH24" t="n">
+        <v>11640</v>
+      </c>
+      <c r="FI24" t="n">
+        <v>9609</v>
+      </c>
+      <c r="FJ24" t="n">
+        <v>14333</v>
+      </c>
+      <c r="FK24" t="n">
+        <v>11640</v>
+      </c>
+      <c r="FL24" t="n">
+        <v>10848</v>
+      </c>
+      <c r="FM24" t="n">
+        <v>10848</v>
+      </c>
+      <c r="FN24" t="n">
+        <v>7187</v>
+      </c>
+      <c r="FO24" t="n">
+        <v>9220</v>
+      </c>
+      <c r="FP24" t="n">
+        <v>9507</v>
+      </c>
+      <c r="FQ24" t="n">
+        <v>10075</v>
+      </c>
+      <c r="FR24" t="n">
+        <v>11508</v>
+      </c>
+      <c r="FS24" t="n">
+        <v>5140</v>
+      </c>
+      <c r="FT24" t="n">
+        <v>8967</v>
+      </c>
+      <c r="FU24" t="n">
+        <v>10137</v>
+      </c>
+      <c r="FV24" t="n">
+        <v>7884</v>
+      </c>
+      <c r="FW24" t="n">
+        <v>3868</v>
+      </c>
+      <c r="FX24" t="n">
+        <v>8393</v>
+      </c>
+      <c r="FY24" t="n">
+        <v>5604</v>
+      </c>
+      <c r="FZ24" t="n">
+        <v>10402</v>
+      </c>
+      <c r="GA24" t="n">
+        <v>7787</v>
+      </c>
+      <c r="GB24" t="n">
+        <v>4731</v>
+      </c>
+      <c r="GC24" t="n">
+        <v>10056</v>
+      </c>
+      <c r="GD24" t="n">
+        <v>10296</v>
+      </c>
+      <c r="GE24" t="n">
+        <v>8161</v>
+      </c>
+      <c r="GF24" t="n">
+        <v>7022</v>
+      </c>
+      <c r="GG24" t="n">
+        <v>4096</v>
+      </c>
+      <c r="GH24" t="n">
+        <v>2189</v>
+      </c>
+      <c r="GI24" t="n">
+        <v>4784</v>
+      </c>
+      <c r="GJ24" t="n">
+        <v>7572</v>
+      </c>
+      <c r="GK24" t="n">
+        <v>7084</v>
+      </c>
+      <c r="GL24" t="n">
+        <v>10872</v>
+      </c>
+      <c r="GM24" t="n">
+        <v>8393</v>
+      </c>
+      <c r="GN24" t="n">
+        <v>7353</v>
+      </c>
+      <c r="GO24" t="n">
+        <v>8078</v>
+      </c>
+      <c r="GP24" t="n">
+        <v>4096</v>
+      </c>
+      <c r="GQ24" t="n">
+        <v>7572</v>
+      </c>
+      <c r="GR24" t="n">
+        <v>9510</v>
+      </c>
+      <c r="GS24" t="n">
+        <v>10144</v>
+      </c>
+      <c r="GT24" t="n">
+        <v>8035</v>
+      </c>
+      <c r="GU24" t="n">
+        <v>9507</v>
+      </c>
+      <c r="GV24" t="n">
+        <v>10400</v>
+      </c>
+      <c r="GW24" t="n">
+        <v>8907</v>
+      </c>
+      <c r="GX24" t="n">
+        <v>10220</v>
+      </c>
+      <c r="GY24" t="n">
+        <v>9696</v>
+      </c>
+      <c r="GZ24" t="n">
+        <v>8653</v>
+      </c>
+      <c r="HA24" t="n">
+        <v>9693</v>
+      </c>
+      <c r="HB24" t="n">
+        <v>8607</v>
+      </c>
+      <c r="HC24" t="n">
+        <v>7155</v>
+      </c>
+      <c r="HD24" t="n">
+        <v>9736</v>
+      </c>
+      <c r="HE24" t="n">
+        <v>1631</v>
+      </c>
+      <c r="HF24" t="n">
+        <v>11975</v>
+      </c>
+      <c r="HG24" t="n">
+        <v>7809</v>
+      </c>
+      <c r="HH24" t="n">
+        <v>8242</v>
+      </c>
+      <c r="HI24" t="n">
+        <v>11227</v>
+      </c>
+      <c r="HJ24" t="n">
+        <v>10228</v>
+      </c>
+      <c r="HK24" t="n">
+        <v>9790</v>
+      </c>
+      <c r="HL24" t="n">
+        <v>11937</v>
+      </c>
+      <c r="HM24" t="n">
+        <v>8980</v>
+      </c>
+      <c r="HN24" t="n">
+        <v>1737</v>
+      </c>
+      <c r="HO24" t="n">
+        <v>8477</v>
+      </c>
+      <c r="HP24" t="n">
+        <v>9415</v>
+      </c>
+      <c r="HQ24" t="n">
+        <v>9206</v>
+      </c>
+      <c r="HR24" t="n">
+        <v>9298</v>
+      </c>
+      <c r="HS24" t="n">
+        <v>2117</v>
+      </c>
+      <c r="HT24" t="n">
+        <v>1199</v>
+      </c>
+      <c r="HU24" t="n">
+        <v>2489</v>
+      </c>
+      <c r="HV24" t="n">
+        <v>0</v>
+      </c>
+      <c r="HW24" t="n">
+        <v>7353</v>
+      </c>
+      <c r="HX24" t="n">
+        <v>1072</v>
+      </c>
+      <c r="HY24" t="n">
+        <v>8241</v>
+      </c>
+      <c r="HZ24" t="n">
+        <v>10400</v>
+      </c>
+      <c r="IA24" t="n">
+        <v>9192</v>
+      </c>
+      <c r="IB24" t="n">
+        <v>8742</v>
+      </c>
+      <c r="IC24" t="n">
+        <v>11625</v>
+      </c>
+      <c r="ID24" t="n">
+        <v>12146</v>
+      </c>
+      <c r="IE24" t="n">
         <v>0</v>
       </c>
     </row>
